--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T13:08:13-05:00</t>
+    <t>2021-11-29T12:19:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T12:19:39-05:00</t>
+    <t>2021-11-29T15:16:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:50-05:00</t>
+    <t>2021-12-02T09:56:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T09:56:35-05:00</t>
+    <t>2021-12-02T10:29:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T10:29:42-05:00</t>
+    <t>2021-12-09T08:58:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,13 +369,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/national-directory/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -781,7 +781,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="93.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.8828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T08:58:20-05:00</t>
+    <t>2021-12-16T09:47:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T09:47:40-05:00</t>
+    <t>2021-12-17T09:57:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,13 +369,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
@@ -781,7 +781,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.8828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.8046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-qualification.xlsx
+++ b/output/StructureDefinition-qualification.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/qualification</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T09:57:57-05:00</t>
+    <t>2021-12-17T10:34:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,13 +369,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtyAndDegreeLicenseCertificateVS</t>
   </si>
   <si>
     <t>issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/ValueSet/QualificationStatusVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/QualificationStatusVS</t>
   </si>
   <si>
     <t>period</t>
@@ -413,7 +413,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-Location)</t>
+Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
